--- a/mbs-perturbation/bottleneck/elm/smote/bottleneck_elm__smote_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/smote/bottleneck_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6242424242424243</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4790697674418605</v>
+        <v>0.9308510638297872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5421052631578948</v>
+        <v>0.8951406649616369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6620335316387236</v>
+        <v>0.9346635572791113</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6306818181818182</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5162790697674419</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5677749360613811</v>
+        <v>0.928395061728395</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6469442942130881</v>
+        <v>0.9533465906117536</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5919540229885057</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5049019607843137</v>
+        <v>0.9533678756476683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544973544973545</v>
+        <v>0.8997555012224938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6259760541384695</v>
+        <v>0.9412257287904956</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.610062893081761</v>
+        <v>0.8820754716981132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4490740740740741</v>
+        <v>0.958974358974359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5173333333333334</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6389105226722049</v>
+        <v>0.9487048665620094</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.675</v>
+        <v>0.8640350877192983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.48</v>
+        <v>0.9656862745098039</v>
       </c>
       <c r="D6" t="n">
-        <v>0.561038961038961</v>
+        <v>0.9120370370370371</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6915880758807589</v>
+        <v>0.9525616698292221</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6263882316989019</v>
+        <v>0.8727755061265317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.485864974413538</v>
+        <v>0.9526388587547603</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5466452077130232</v>
+        <v>0.9108494367736963</v>
       </c>
       <c r="E7" t="n">
-        <v>0.653090495708649</v>
+        <v>0.9461004826145185</v>
       </c>
     </row>
   </sheetData>
